--- a/Model/VIX/set50_return.xlsx
+++ b/Model/VIX/set50_return.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Croissant\Internship\Yuanta\Model\VIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178248A-D63C-41AB-A90A-C91FD4CDA72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40887B94-609B-4543-ABC5-747B23683977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Index Name</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Test Date</t>
-  </si>
-  <si>
-    <t>NoOrders</t>
   </si>
   <si>
     <t>^SET.BK</t>
@@ -314,12 +311,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -367,110 +370,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -488,6 +491,12 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -578,27 +587,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B15EFE28-7533-49B7-9231-7DAC8C13F7A4}" name="Table1" displayName="Table1" ref="A1:M31" totalsRowCount="1" headerRowDxfId="13">
-  <autoFilter ref="A1:M30" xr:uid="{B15EFE28-7533-49B7-9231-7DAC8C13F7A4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B74F69AD-4C23-47A3-A5B7-B0527B4560EC}" name="Table1" displayName="Table1" ref="A1:L31" totalsRowCount="1" headerRowDxfId="13" totalsRowDxfId="0">
+  <autoFilter ref="A1:L30" xr:uid="{B74F69AD-4C23-47A3-A5B7-B0527B4560EC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L30">
     <sortCondition descending="1" ref="C2:C30"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{FB8055A4-0779-47D0-9F73-8A643287DACC}" name="Column1" dataDxfId="14" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D68F0D24-7BCD-4020-AC63-604BA200DD0B}" name="Index Name" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{E6E67419-CE2F-4C48-9610-C650BA4E2E02}" name="Annual Return" totalsRowFunction="average" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{701879CF-6008-4FC0-A7A4-D00810999EE4}" name="Cumulative Returns" totalsRowFunction="average" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{12C49863-8F63-4872-B294-964774F47F86}" name="Annual Volatility" totalsRowFunction="average" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{15285926-7AA2-4352-BCEA-B7DE7269F95B}" name="Sharpe Ratio" totalsRowFunction="average" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D6989E70-BD6E-43D6-BD57-A73F7D8C7513}" name="Sortino Ratio" totalsRowFunction="average" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{4C0396A9-E7C0-43C3-9048-25779AB764D4}" name="Max Drawdown" totalsRowFunction="average" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{EEE987D1-3AE2-4E57-8CE4-1F6ECFF2FA04}" name="Calmar Ratio" totalsRowFunction="average" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{831511EB-45B4-4F78-94C9-D2251155FBEE}" name="2_Train" totalsRowFunction="average" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{599B9CF0-6CC0-4DA7-974C-98A033E0672E}" name="2_Test" totalsRowFunction="average" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{CCE47150-5710-4FEF-92F9-EC4D5E49A4B8}" name="Test Date" totalsRowFunction="average" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{BE6DC861-EF15-4151-A9F3-48E0DB563C12}" name="NoOrders" totalsRowFunction="average" totalsRowDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{DC9352CF-514E-418F-BA1D-80D8BB6D93FF}" name="Column1" dataDxfId="14" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{78415BFC-BB01-4E26-949B-2E27EC532EA0}" name="Index Name" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{6F147D45-A78F-4383-AEA6-BD6DC7E517C2}" name="Annual Return" totalsRowFunction="average" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{516E00B5-E282-4311-BB50-927F1A8934A7}" name="Cumulative Returns" totalsRowFunction="average" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{F261BFF8-7F2C-45A3-B0FD-1A4E650AFDD2}" name="Annual Volatility" totalsRowFunction="average" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B922D521-4360-45F1-977E-1E2B2DF5BB47}" name="Sharpe Ratio" totalsRowFunction="average" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{214440E8-9D68-4613-AC02-612D030C2CCD}" name="Sortino Ratio" totalsRowFunction="average" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{C9744B24-79D6-4D49-A3BD-A5B30F714126}" name="Max Drawdown" totalsRowFunction="average" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{E01D2DD7-AF7C-4A98-A38F-6CAC76C9CE06}" name="Calmar Ratio" totalsRowFunction="average" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{B7EC3873-C81A-4BEE-80BF-C2460EA79840}" name="2_Train" totalsRowFunction="average" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{CAC41978-743D-4A3B-93D7-36B339A4B968}" name="2_Test" totalsRowFunction="average" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{C2D74E7B-6C22-4EA9-B279-F83F18408BD5}" name="Test Date" totalsRowDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -887,31 +895,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -946,78 +949,72 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
       <c r="C2">
-        <v>1.036417237831174</v>
+        <v>1.036417269138687</v>
       </c>
       <c r="D2">
-        <v>24.74759627014685</v>
+        <v>24.747598078125481</v>
       </c>
       <c r="E2">
-        <v>0.70306616489364859</v>
+        <v>0.70306615653685456</v>
       </c>
       <c r="F2">
-        <v>1.355435209441072</v>
+        <v>1.355435240870698</v>
       </c>
       <c r="G2">
-        <v>2.2702309744426898</v>
+        <v>2.270230983677239</v>
       </c>
       <c r="H2">
-        <v>-0.61820864853373936</v>
+        <v>-0.61820866182427736</v>
       </c>
       <c r="I2">
-        <v>1.676484533643031</v>
+        <v>1.676484548243492</v>
       </c>
       <c r="J2">
-        <v>0.58849077090119439</v>
+        <v>0.58805646036916392</v>
       </c>
       <c r="K2">
-        <v>0.52517361111111116</v>
+        <v>0.5234375</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
       <c r="C3">
-        <v>0.34803956955767951</v>
+        <v>0.34803958993071887</v>
       </c>
       <c r="D3">
-        <v>2.9074818562969229</v>
+        <v>2.9074821257899108</v>
       </c>
       <c r="E3">
-        <v>0.41270703941197923</v>
+        <v>0.41270705072783348</v>
       </c>
       <c r="F3">
-        <v>0.92858130840969999</v>
+        <v>0.92858132821747552</v>
       </c>
       <c r="G3">
-        <v>1.4622578125894961</v>
+        <v>1.4622579321779581</v>
       </c>
       <c r="H3">
-        <v>-0.59417461167211594</v>
+        <v>-0.59417462002462629</v>
       </c>
       <c r="I3">
-        <v>0.58575301387959422</v>
+        <v>0.58575303993343575</v>
       </c>
       <c r="J3">
         <v>0.60178144688246793</v>
@@ -1026,18 +1023,15 @@
         <v>0.54995655951346656</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
       <c r="C4">
         <v>0.22950884194165069</v>
@@ -1061,373 +1055,346 @@
         <v>0.79980348490690623</v>
       </c>
       <c r="J4">
-        <v>0.63846859238881248</v>
+        <v>0.63938560293443369</v>
       </c>
       <c r="K4">
         <v>0.60036663611365715</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5">
-        <v>0.22652839436343419</v>
+        <v>0.22652835800584989</v>
       </c>
       <c r="D5">
-        <v>1.3605270438985979</v>
+        <v>1.3605267495705169</v>
       </c>
       <c r="E5">
-        <v>0.32537332021717491</v>
+        <v>0.32537332476220909</v>
       </c>
       <c r="F5">
-        <v>0.79000043476034565</v>
+        <v>0.79000034263565344</v>
       </c>
       <c r="G5">
-        <v>1.2123827564761751</v>
+        <v>1.2123824022477649</v>
       </c>
       <c r="H5">
-        <v>-0.27519388818150198</v>
+        <v>-0.27519386440924237</v>
       </c>
       <c r="I5">
-        <v>0.82315924914011573</v>
+        <v>0.82315918813138311</v>
       </c>
       <c r="J5">
-        <v>0.57590759075907594</v>
+        <v>0.57661480433757661</v>
       </c>
       <c r="K5">
         <v>0.53534401508011309</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
       <c r="C6">
-        <v>0.20760824056757651</v>
+        <v>0.2076082405675759</v>
       </c>
       <c r="D6">
-        <v>1.3669771436236089</v>
+        <v>1.3669771436236029</v>
       </c>
       <c r="E6">
-        <v>0.29450895630450752</v>
+        <v>0.29450894726524429</v>
       </c>
       <c r="F6">
-        <v>0.78874876299018293</v>
+        <v>0.78874877870012239</v>
       </c>
       <c r="G6">
-        <v>1.185501119067546</v>
+        <v>1.185501186391078</v>
       </c>
       <c r="H6">
-        <v>-0.37692308791403489</v>
+        <v>-0.37692297800445562</v>
       </c>
       <c r="I6">
-        <v>0.55079735687330955</v>
+        <v>0.55079751748412054</v>
       </c>
       <c r="J6">
-        <v>0.62475570032573291</v>
+        <v>0.62540716612377845</v>
       </c>
       <c r="K6">
         <v>0.64409722222222221</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>0.17365549966827459</v>
+      </c>
+      <c r="D7">
+        <v>0.84275936383132577</v>
+      </c>
+      <c r="E7">
+        <v>0.28598005505690799</v>
+      </c>
+      <c r="F7">
+        <v>0.70162333388770304</v>
+      </c>
+      <c r="G7">
+        <v>1.1165645305124561</v>
+      </c>
+      <c r="H7">
+        <v>-0.28701337022794038</v>
+      </c>
+      <c r="I7">
+        <v>0.60504324077432647</v>
+      </c>
+      <c r="J7">
+        <v>0.5814497272018706</v>
+      </c>
+      <c r="K7">
+        <v>0.58047767393561789</v>
+      </c>
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="C7">
-        <v>0.17365547992524591</v>
-      </c>
-      <c r="D7">
-        <v>0.84275924549548842</v>
-      </c>
-      <c r="E7">
-        <v>0.28598002236621478</v>
-      </c>
-      <c r="F7">
-        <v>0.70162332148306505</v>
-      </c>
-      <c r="G7">
-        <v>1.116564582086071</v>
-      </c>
-      <c r="H7">
-        <v>-0.2870133517969039</v>
-      </c>
-      <c r="I7">
-        <v>0.60504321084033674</v>
-      </c>
-      <c r="J7">
-        <v>0.58118991945959986</v>
-      </c>
-      <c r="K7">
-        <v>0.57840083073727933</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
       <c r="C8">
-        <v>0.1569670504339564</v>
+        <v>0.15696702351435449</v>
       </c>
       <c r="D8">
-        <v>0.9463283674848364</v>
+        <v>0.94632816064293479</v>
       </c>
       <c r="E8">
-        <v>0.23898572892168909</v>
+        <v>0.23898576202879951</v>
       </c>
       <c r="F8">
-        <v>0.72856069323606898</v>
+        <v>0.7285605298559884</v>
       </c>
       <c r="G8">
-        <v>1.1860287266289711</v>
+        <v>1.186028307770771</v>
       </c>
       <c r="H8">
-        <v>-0.30000000921339459</v>
+        <v>-0.30000000921339443</v>
       </c>
       <c r="I8">
-        <v>0.52322348537763985</v>
+        <v>0.5232233956456368</v>
       </c>
       <c r="J8">
-        <v>0.60304017372421281</v>
+        <v>0.60325732899022799</v>
       </c>
       <c r="K8">
-        <v>0.65104166666666663</v>
+        <v>0.65190972222222221</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
       <c r="C9">
-        <v>0.1558172347878215</v>
+        <v>0.15581725793546949</v>
       </c>
       <c r="D9">
-        <v>0.93750918730989286</v>
+        <v>0.93750936453949985</v>
       </c>
       <c r="E9">
-        <v>0.44911898179126158</v>
+        <v>0.44911897393167188</v>
       </c>
       <c r="F9">
-        <v>0.51152523522640314</v>
+        <v>0.5115252808527736</v>
       </c>
       <c r="G9">
-        <v>1.0966266584223849</v>
+        <v>1.0966267653789921</v>
       </c>
       <c r="H9">
         <v>-0.41279070154275671</v>
       </c>
       <c r="I9">
-        <v>0.37747273425848232</v>
+        <v>0.37747279033447428</v>
       </c>
       <c r="J9">
-        <v>0.59869706840390879</v>
+        <v>0.59913137893593915</v>
       </c>
       <c r="K9">
-        <v>0.60763888888888884</v>
+        <v>0.60850694444444442</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
       <c r="C10">
-        <v>0.130070200698396</v>
+        <v>0.1300701831439737</v>
       </c>
       <c r="D10">
-        <v>0.74806232213135004</v>
+        <v>0.74806219810533148</v>
       </c>
       <c r="E10">
-        <v>0.18404596180348709</v>
+        <v>0.18404596424695549</v>
       </c>
       <c r="F10">
-        <v>0.75640638571835639</v>
+        <v>0.75640629521003566</v>
       </c>
       <c r="G10">
-        <v>1.1496810242636539</v>
+        <v>1.1496806670658879</v>
       </c>
       <c r="H10">
-        <v>-0.2439758825066323</v>
+        <v>-0.24397581899633591</v>
       </c>
       <c r="I10">
-        <v>0.53312728849278845</v>
+        <v>0.53312735532174638</v>
       </c>
       <c r="J10">
-        <v>0.59934853420195444</v>
+        <v>0.59956568946796962</v>
       </c>
       <c r="K10">
-        <v>0.56597222222222221</v>
+        <v>0.56510416666666663</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
       <c r="C11">
-        <v>0.1210798607421693</v>
+        <v>0.12107984073611559</v>
       </c>
       <c r="D11">
-        <v>0.57673359771877664</v>
+        <v>0.57673348561600291</v>
       </c>
       <c r="E11">
-        <v>0.34106325749573169</v>
+        <v>0.3410632583374143</v>
       </c>
       <c r="F11">
-        <v>0.5053458681985693</v>
+        <v>0.50534581377364618</v>
       </c>
       <c r="G11">
-        <v>0.74479810246404698</v>
+        <v>0.74479805155306389</v>
       </c>
       <c r="H11">
-        <v>-0.45901687931669372</v>
+        <v>-0.45901682622453571</v>
       </c>
       <c r="I11">
-        <v>0.26378084597327311</v>
+        <v>0.26378083289889542</v>
       </c>
       <c r="J11">
-        <v>0.59855649576903935</v>
+        <v>0.59805873568939771</v>
       </c>
       <c r="K11">
         <v>0.56417910447761199</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>0.1150932547171104</v>
+      </c>
+      <c r="D12">
+        <v>0.84116559658096057</v>
+      </c>
+      <c r="E12">
+        <v>0.18022466163317891</v>
+      </c>
+      <c r="F12">
+        <v>0.69400359086820385</v>
+      </c>
+      <c r="G12">
+        <v>1.0927498952899559</v>
+      </c>
+      <c r="H12">
+        <v>-0.23505525462754201</v>
+      </c>
+      <c r="I12">
+        <v>0.48964340277983592</v>
+      </c>
+      <c r="J12">
+        <v>0.5997521685254027</v>
+      </c>
+      <c r="K12">
+        <v>0.58244869072894545</v>
+      </c>
+      <c r="L12" t="s">
         <v>50</v>
       </c>
-      <c r="C12">
-        <v>0.1150932347068874</v>
-      </c>
-      <c r="D12">
-        <v>0.84116541145482748</v>
-      </c>
-      <c r="E12">
-        <v>0.18022468491338031</v>
-      </c>
-      <c r="F12">
-        <v>0.69400342380271829</v>
-      </c>
-      <c r="G12">
-        <v>1.0927497601275991</v>
-      </c>
-      <c r="H12">
-        <v>-0.2350553766439416</v>
-      </c>
-      <c r="I12">
-        <v>0.48964306347788378</v>
-      </c>
-      <c r="J12">
-        <v>0.59992919100725794</v>
-      </c>
-      <c r="K12">
-        <v>0.58315640481245579</v>
-      </c>
-      <c r="L12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
       <c r="C13">
-        <v>0.10166866013172909</v>
+        <v>0.1016686382761165</v>
       </c>
       <c r="D13">
-        <v>0.49696786991073832</v>
+        <v>0.49696774616985467</v>
       </c>
       <c r="E13">
-        <v>0.25845127148539099</v>
+        <v>0.25845125544478392</v>
       </c>
       <c r="F13">
-        <v>0.50217753141173049</v>
+        <v>0.50217747535793045</v>
       </c>
       <c r="G13">
-        <v>0.80577549878599952</v>
+        <v>0.80577524828511937</v>
       </c>
       <c r="H13">
-        <v>-0.24599396271250229</v>
+        <v>-0.24599396271250351</v>
       </c>
       <c r="I13">
-        <v>0.41329737937735977</v>
+        <v>0.41329729053122349</v>
       </c>
       <c r="J13">
         <v>0.56351094196003804</v>
@@ -1436,285 +1403,264 @@
         <v>0.62987630827783059</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
       <c r="C14">
-        <v>0.1001414763492552</v>
+        <v>0.10014149758544109</v>
       </c>
       <c r="D14">
-        <v>0.52658956965768611</v>
+        <v>0.52658970027565255</v>
       </c>
       <c r="E14">
-        <v>0.31092594400588558</v>
+        <v>0.31092591498684741</v>
       </c>
       <c r="F14">
-        <v>0.4614073172915048</v>
+        <v>0.46140739850524792</v>
       </c>
       <c r="G14">
-        <v>0.70689345689238547</v>
+        <v>0.70689349974656268</v>
       </c>
       <c r="H14">
-        <v>-0.31651380962500691</v>
+        <v>-0.31651380962500719</v>
       </c>
       <c r="I14">
-        <v>0.31638896409574951</v>
+        <v>0.31638903118977563</v>
       </c>
       <c r="J14">
-        <v>0.60501006486244691</v>
+        <v>0.60523372847237755</v>
       </c>
       <c r="K14">
         <v>0.56976744186046513</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
       <c r="C15">
-        <v>9.2991747112615819E-2</v>
+        <v>9.2991765262200765E-2</v>
       </c>
       <c r="D15">
-        <v>0.50100133812600123</v>
+        <v>0.50100145196883261</v>
       </c>
       <c r="E15">
-        <v>0.25162883030627881</v>
+        <v>0.25162881400855941</v>
       </c>
       <c r="F15">
-        <v>0.47902008428074327</v>
+        <v>0.47902016472543751</v>
       </c>
       <c r="G15">
-        <v>0.70589388810018638</v>
+        <v>0.70589401455508061</v>
       </c>
       <c r="H15">
-        <v>-0.29492191022578917</v>
+        <v>-0.29492186259841069</v>
       </c>
       <c r="I15">
-        <v>0.31530972738316487</v>
+        <v>0.31530983984332761</v>
       </c>
       <c r="J15">
-        <v>0.58327904451682955</v>
+        <v>0.58371335504885991</v>
       </c>
       <c r="K15">
-        <v>0.56770833333333337</v>
+        <v>0.57118055555555558</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
       <c r="C16">
-        <v>8.9959907771088865E-2</v>
+        <v>8.9959907771087755E-2</v>
       </c>
       <c r="D16">
-        <v>0.48207807111199391</v>
+        <v>0.48207807111198758</v>
       </c>
       <c r="E16">
-        <v>0.40166329853518717</v>
+        <v>0.40166323961207379</v>
       </c>
       <c r="F16">
-        <v>0.41660128424151249</v>
+        <v>0.41660127703527328</v>
       </c>
       <c r="G16">
-        <v>0.60796007535953778</v>
+        <v>0.60796013370436097</v>
       </c>
       <c r="H16">
-        <v>-0.51653509124564367</v>
+        <v>-0.5165350912456429</v>
       </c>
       <c r="I16">
-        <v>0.1741603025539798</v>
+        <v>0.17416030255397791</v>
       </c>
       <c r="J16">
         <v>0.59609120521172643</v>
       </c>
       <c r="K16">
-        <v>0.59895833333333337</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>8.3014258561079801E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.4021127214107767</v>
+      </c>
+      <c r="E17">
+        <v>0.2371571579479351</v>
+      </c>
+      <c r="F17">
+        <v>0.45466037740764742</v>
+      </c>
+      <c r="G17">
+        <v>0.67244443272713217</v>
+      </c>
+      <c r="H17">
+        <v>-0.25531931250909368</v>
+      </c>
+      <c r="I17">
+        <v>0.32513897106049539</v>
+      </c>
+      <c r="J17">
+        <v>0.62906622981511817</v>
+      </c>
+      <c r="K17">
+        <v>0.61927034611786713</v>
+      </c>
+      <c r="L17" t="s">
         <v>26</v>
       </c>
-      <c r="C17">
-        <v>8.3014258561079579E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.40211272141077492</v>
-      </c>
-      <c r="E17">
-        <v>0.2371571083284067</v>
-      </c>
-      <c r="F17">
-        <v>0.45466042898307929</v>
-      </c>
-      <c r="G17">
-        <v>0.67244439329054451</v>
-      </c>
-      <c r="H17">
-        <v>-0.25531906856796421</v>
-      </c>
-      <c r="I17">
-        <v>0.32513928171009981</v>
-      </c>
-      <c r="J17">
-        <v>0.62930025743037676</v>
-      </c>
-      <c r="K17">
-        <v>0.61739943872778302</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
       <c r="C18">
-        <v>8.0180816470486471E-2</v>
+        <v>8.0180816470487137E-2</v>
       </c>
       <c r="D18">
-        <v>0.42230832634644128</v>
+        <v>0.42230832634644527</v>
       </c>
       <c r="E18">
-        <v>0.30472167055499688</v>
+        <v>0.30472166787042398</v>
       </c>
       <c r="F18">
-        <v>0.40410701343057598</v>
+        <v>0.40410702633004081</v>
       </c>
       <c r="G18">
-        <v>0.62000782625637341</v>
+        <v>0.62000762941429388</v>
       </c>
       <c r="H18">
-        <v>-0.39529916829035328</v>
+        <v>-0.39529913144143131</v>
       </c>
       <c r="I18">
-        <v>0.2028357833821508</v>
+        <v>0.20283580229006129</v>
       </c>
       <c r="J18">
-        <v>0.57850162866449506</v>
+        <v>0.57828447339847988</v>
       </c>
       <c r="K18">
-        <v>0.55989583333333337</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
       <c r="C19">
-        <v>7.53910344373383E-2</v>
+        <v>7.5391010852495333E-2</v>
       </c>
       <c r="D19">
-        <v>0.39372898352719821</v>
+        <v>0.39372884391618612</v>
       </c>
       <c r="E19">
-        <v>0.17380593240759429</v>
+        <v>0.17380586842003259</v>
       </c>
       <c r="F19">
-        <v>0.50486613280852433</v>
+        <v>0.50486612899451089</v>
       </c>
       <c r="G19">
-        <v>0.75840333612854782</v>
+        <v>0.75840331274552031</v>
       </c>
       <c r="H19">
-        <v>-0.2111827885455641</v>
+        <v>-0.21118284320916819</v>
       </c>
       <c r="I19">
-        <v>0.35699421793112729</v>
+        <v>0.35699401384526069</v>
       </c>
       <c r="J19">
-        <v>0.57437567861020633</v>
+        <v>0.57480998914223669</v>
       </c>
       <c r="K19">
         <v>0.5703125</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
       <c r="C20">
-        <v>7.1149689751500045E-2</v>
+        <v>7.1149711082054035E-2</v>
       </c>
       <c r="D20">
-        <v>0.35801420280896551</v>
+        <v>0.35801432321509902</v>
       </c>
       <c r="E20">
-        <v>0.36513661144350129</v>
+        <v>0.36513662147636439</v>
       </c>
       <c r="F20">
-        <v>0.36723133270524388</v>
+        <v>0.36723138770121733</v>
       </c>
       <c r="G20">
-        <v>0.57626618737697388</v>
+        <v>0.57626624315960673</v>
       </c>
       <c r="H20">
-        <v>-0.38839289118326048</v>
+        <v>-0.38839283695610438</v>
       </c>
       <c r="I20">
-        <v>0.18318998974141509</v>
+        <v>0.18319007023833259</v>
       </c>
       <c r="J20">
         <v>0.60957683741648105</v>
@@ -1723,182 +1669,167 @@
         <v>0.59038290293855744</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
       <c r="C21">
-        <v>5.723346024076692E-2</v>
+        <v>5.7233478436035989E-2</v>
       </c>
       <c r="D21">
-        <v>0.28943550593170531</v>
+        <v>0.28943560729063211</v>
       </c>
       <c r="E21">
-        <v>0.21166385104397861</v>
+        <v>0.21166377147489851</v>
       </c>
       <c r="F21">
-        <v>0.37038251973001979</v>
+        <v>0.37038265608643872</v>
       </c>
       <c r="G21">
-        <v>0.49801202401802319</v>
+        <v>0.49801231021152409</v>
       </c>
       <c r="H21">
-        <v>-0.32203392811304898</v>
+        <v>-0.32203392811304921</v>
       </c>
       <c r="I21">
-        <v>0.17772493903398681</v>
+        <v>0.17772499553508009</v>
       </c>
       <c r="J21">
-        <v>0.58892508143322475</v>
+        <v>0.58849077090119439</v>
       </c>
       <c r="K21">
         <v>0.61371527777777779</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
       <c r="C22">
-        <v>4.4523949902984361E-2</v>
+        <v>4.4523931861979671E-2</v>
       </c>
       <c r="D22">
-        <v>0.22013827842953071</v>
+        <v>0.22013818217390099</v>
       </c>
       <c r="E22">
-        <v>0.25574844339206437</v>
+        <v>0.25574851018892159</v>
       </c>
       <c r="F22">
-        <v>0.29879662482600339</v>
+        <v>0.29879654780656312</v>
       </c>
       <c r="G22">
-        <v>0.42491237535840137</v>
+        <v>0.42491220164608973</v>
       </c>
       <c r="H22">
-        <v>-0.40009225808809712</v>
+        <v>-0.4000923722984388</v>
       </c>
       <c r="I22">
-        <v>0.1112842075868925</v>
+        <v>0.11128413072761149</v>
       </c>
       <c r="J22">
-        <v>0.59891422366992397</v>
+        <v>0.59869706840390879</v>
       </c>
       <c r="K22">
-        <v>0.59375</v>
+        <v>0.59548611111111116</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
       <c r="C23">
-        <v>2.86903250487387E-2</v>
+        <v>2.8690299132370312E-2</v>
       </c>
       <c r="D23">
-        <v>0.1379146151021631</v>
+        <v>0.13791448416168331</v>
       </c>
       <c r="E23">
-        <v>0.20150758849915909</v>
+        <v>0.2015076486046585</v>
       </c>
       <c r="F23">
-        <v>0.24050194501785871</v>
+        <v>0.2405018099185936</v>
       </c>
       <c r="G23">
-        <v>0.36371376389999682</v>
+        <v>0.36371349358128507</v>
       </c>
       <c r="H23">
-        <v>-0.35469248735341891</v>
+        <v>-0.35469257841873342</v>
       </c>
       <c r="I23">
-        <v>8.0887884778206173E-2</v>
+        <v>8.0887790943570001E-2</v>
       </c>
       <c r="J23">
-        <v>0.58414766558089037</v>
+        <v>0.58458197611292073</v>
       </c>
       <c r="K23">
-        <v>0.58854166666666663</v>
+        <v>0.58940972222222221</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
       <c r="C24">
-        <v>1.5517854998493339E-2</v>
+        <v>1.551787651930892E-2</v>
       </c>
       <c r="D24">
-        <v>6.6655252340819038E-2</v>
+        <v>6.6655347064514814E-2</v>
       </c>
       <c r="E24">
-        <v>0.26693061530111811</v>
+        <v>0.26693057759067668</v>
       </c>
       <c r="F24">
-        <v>0.19070348064702969</v>
+        <v>0.19070355555643109</v>
       </c>
       <c r="G24">
-        <v>0.2822119647191883</v>
+        <v>0.28221201839722299</v>
       </c>
       <c r="H24">
-        <v>-0.2588658045907421</v>
+        <v>-0.25886580459074199</v>
       </c>
       <c r="I24">
-        <v>5.9945557595088829E-2</v>
+        <v>5.9945640730115553E-2</v>
       </c>
       <c r="J24">
         <v>0.59621301775147928</v>
       </c>
       <c r="K24">
-        <v>0.61116367076631972</v>
+        <v>0.61021759697256384</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
       </c>
       <c r="C25">
         <v>1.153588776983216E-2</v>
@@ -1928,18 +1859,15 @@
         <v>0.50429352068696331</v>
       </c>
       <c r="L25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
         <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
       </c>
       <c r="C26">
         <v>9.4555073794566624E-4</v>
@@ -1948,244 +1876,222 @@
         <v>3.501500565300741E-3</v>
       </c>
       <c r="E26">
-        <v>0.29909801277635872</v>
+        <v>0.29909804842756588</v>
       </c>
       <c r="F26">
-        <v>0.15036810068777751</v>
+        <v>0.15036811238810621</v>
       </c>
       <c r="G26">
-        <v>0.23456806405353159</v>
+        <v>0.23456811927386509</v>
       </c>
       <c r="H26">
-        <v>-0.27407413930903091</v>
+        <v>-0.27407419649552062</v>
       </c>
       <c r="I26">
-        <v>3.4499816010715089E-3</v>
+        <v>3.449980881221411E-3</v>
       </c>
       <c r="J26">
-        <v>0.58279742765273312</v>
+        <v>0.58145766345123262</v>
       </c>
       <c r="K26">
         <v>0.58413719185423363</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
       <c r="C27">
-        <v>-1.963065742664472E-3</v>
+        <v>-1.963086816713977E-3</v>
       </c>
       <c r="D27">
-        <v>-8.9348816359433592E-3</v>
+        <v>-8.9349772184332821E-3</v>
       </c>
       <c r="E27">
-        <v>0.2230731271558779</v>
+        <v>0.2230731430984752</v>
       </c>
       <c r="F27">
-        <v>0.10221458639952601</v>
+        <v>0.10221450016438061</v>
       </c>
       <c r="G27">
-        <v>0.15403075452061479</v>
+        <v>0.154030626170338</v>
       </c>
       <c r="H27">
-        <v>-0.42510956077548689</v>
+        <v>-0.42510952594803492</v>
       </c>
       <c r="I27">
-        <v>-4.6177877982406168E-3</v>
+        <v>-4.6178377497801439E-3</v>
       </c>
       <c r="J27">
-        <v>0.60846905537459284</v>
+        <v>0.61085776330076003</v>
       </c>
       <c r="K27">
-        <v>0.64756944444444442</v>
+        <v>0.6484375</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
       <c r="C28">
-        <v>-1.1564581202732519E-2</v>
+        <v>-1.156458120273229E-2</v>
       </c>
       <c r="D28">
-        <v>-4.3079840499665178E-2</v>
+        <v>-4.307984049966429E-2</v>
       </c>
       <c r="E28">
-        <v>0.2043904713672243</v>
+        <v>0.2043904155818983</v>
       </c>
       <c r="F28">
-        <v>4.4813662560383473E-2</v>
+        <v>4.4813620125260481E-2</v>
       </c>
       <c r="G28">
-        <v>6.641081774263996E-2</v>
+        <v>6.6410750025324955E-2</v>
       </c>
       <c r="H28">
-        <v>-0.29318284707545861</v>
+        <v>-0.29318284707545927</v>
       </c>
       <c r="I28">
-        <v>-3.944494474383782E-2</v>
+        <v>-3.9444944743836967E-2</v>
       </c>
       <c r="J28">
         <v>0.59261199895205663</v>
       </c>
       <c r="K28">
-        <v>0.58219895287958112</v>
+        <v>0.58010471204188485</v>
       </c>
       <c r="L28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
       <c r="C29">
-        <v>-4.9495504311344973E-2</v>
+        <v>-4.9495504311345313E-2</v>
       </c>
       <c r="D29">
-        <v>-0.19987868208779511</v>
+        <v>-0.19987868208779619</v>
       </c>
       <c r="E29">
-        <v>0.22383320454264741</v>
+        <v>0.22383330533503101</v>
       </c>
       <c r="F29">
-        <v>-0.11525978832267041</v>
+        <v>-0.11525964201903049</v>
       </c>
       <c r="G29">
-        <v>-0.1661543638503753</v>
+        <v>-0.1661542227747678</v>
       </c>
       <c r="H29">
-        <v>-0.46023567659356868</v>
+        <v>-0.46023563818526952</v>
       </c>
       <c r="I29">
-        <v>-0.10754382336824821</v>
+        <v>-0.1075438323431631</v>
       </c>
       <c r="J29">
         <v>0.62920334010381407</v>
       </c>
       <c r="K29">
-        <v>0.6155234657039711</v>
+        <v>0.61371841155234652</v>
       </c>
       <c r="L29" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
       <c r="C30">
-        <v>-0.1211358644415093</v>
+        <v>-0.1211358644415079</v>
       </c>
       <c r="D30">
-        <v>-0.44554694196461581</v>
+        <v>-0.44554694196461192</v>
       </c>
       <c r="E30">
-        <v>0.24526057610117269</v>
+        <v>0.2452605586933288</v>
       </c>
       <c r="F30">
-        <v>-0.40222805993847138</v>
+        <v>-0.40222810948746102</v>
       </c>
       <c r="G30">
-        <v>-0.5445722846102149</v>
+        <v>-0.54457243261466337</v>
       </c>
       <c r="H30">
-        <v>-0.54278657562558685</v>
+        <v>-0.54278657562558374</v>
       </c>
       <c r="I30">
-        <v>-0.2231740243426148</v>
+        <v>-0.2231740243426136</v>
       </c>
       <c r="J30">
-        <v>0.60152008686210645</v>
+        <v>0.60108577633007598</v>
       </c>
       <c r="K30">
-        <v>0.546875</v>
+        <v>0.54947916666666663</v>
       </c>
       <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3">
         <f>SUBTOTAL(101,Table1[Annual Return])</f>
-        <v>0.1230886534186757</v>
+        <v>0.12308865354641088</v>
       </c>
       <c r="D31" s="3">
         <f>SUBTOTAL(101,Table1[Cumulative Returns])</f>
-        <v>1.3924920864368271</v>
+        <v>1.3924921483569472</v>
       </c>
       <c r="E31" s="3">
         <f>SUBTOTAL(101,Table1[Annual Volatility])</f>
-        <v>0.28860293755223859</v>
+        <v>0.28860293748063948</v>
       </c>
       <c r="F31" s="3">
         <f>SUBTOTAL(101,Table1[Sharpe Ratio])</f>
-        <v>0.45262831736503106</v>
+        <v>0.45262831672510134</v>
       </c>
       <c r="G31" s="3">
         <f>SUBTOTAL(101,Table1[Sortino Ratio])</f>
-        <v>0.71183828114636449</v>
+        <v>0.71183823996388451</v>
       </c>
       <c r="H31" s="3">
         <f>SUBTOTAL(101,Table1[Max Drawdown])</f>
-        <v>-0.35544686890532701</v>
+        <v>-0.35544686948812221</v>
       </c>
       <c r="I31" s="3">
         <f>SUBTOTAL(101,Table1[Calmar Ratio])</f>
-        <v>0.33165203275898714</v>
+        <v>0.33165203669913174</v>
       </c>
       <c r="J31" s="3">
         <f>SUBTOTAL(101,Table1[2_Train])</f>
-        <v>0.59780821298236897</v>
+        <v>0.59792316489113828</v>
       </c>
       <c r="K31" s="3">
         <f>SUBTOTAL(101,Table1[2_Test])</f>
-        <v>0.58611711877345829</v>
-      </c>
-      <c r="L31" s="3" t="e">
-        <f>SUBTOTAL(101,Table1[Test Date])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="3">
-        <f>SUBTOTAL(101,Table1[NoOrders])</f>
-        <v>6.931034482758621</v>
-      </c>
+        <v>0.58639102494011175</v>
+      </c>
+      <c r="L31" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C30">
@@ -2200,7 +2106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E30">
+  <conditionalFormatting sqref="K2:K30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2224,7 +2130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K30">
+  <conditionalFormatting sqref="E2:E30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
